--- a/data/trans_orig/P41E_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>73838</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60979</v>
+        <v>62474</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86168</v>
+        <v>86795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2789447190116551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.230369200480592</v>
+        <v>0.2360152906142786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3255263807699267</v>
+        <v>0.3278939371499298</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -762,19 +762,19 @@
         <v>105047</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92962</v>
+        <v>92153</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118629</v>
+        <v>118037</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3502212053366243</v>
+        <v>0.3502212053366244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.309928016659357</v>
+        <v>0.307232762146519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3955004492778277</v>
+        <v>0.3935286690385625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -783,19 +783,19 @@
         <v>178885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160177</v>
+        <v>161734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>197915</v>
+        <v>197996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3168073429243949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2836758619073655</v>
+        <v>0.2864330396581872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.350510580844202</v>
+        <v>0.350653265167838</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>190865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178535</v>
+        <v>177908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203724</v>
+        <v>202229</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7210552809883447</v>
+        <v>0.7210552809883448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6744736192300734</v>
+        <v>0.6721060628500698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7696307995194068</v>
+        <v>0.7639847093857215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>332</v>
@@ -833,19 +833,19 @@
         <v>194899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>181317</v>
+        <v>181909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206984</v>
+        <v>207793</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6497787946633755</v>
+        <v>0.6497787946633758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6044995507221723</v>
+        <v>0.6064713309614375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.690071983340643</v>
+        <v>0.6927672378534808</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>549</v>
@@ -854,19 +854,19 @@
         <v>385764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>366734</v>
+        <v>366653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>404472</v>
+        <v>402915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6831926570756051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6494894191557979</v>
+        <v>0.649346734832162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7163241380926342</v>
+        <v>0.7135669603418128</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>95776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78525</v>
+        <v>79510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114752</v>
+        <v>114689</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09481573622904012</v>
+        <v>0.0948157362290401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07773789478841592</v>
+        <v>0.07871304627061572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1136013494785829</v>
+        <v>0.113539154913169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -979,19 +979,19 @@
         <v>79075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65420</v>
+        <v>65780</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94401</v>
+        <v>96667</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0825420666998519</v>
+        <v>0.08254206669985188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06828830151566481</v>
+        <v>0.06866373363691843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09854051798396773</v>
+        <v>0.1009057323355032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>240</v>
@@ -1000,19 +1000,19 @@
         <v>174851</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153424</v>
+        <v>154299</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201030</v>
+        <v>199440</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08884146998688798</v>
+        <v>0.08884146998688797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07795446994859082</v>
+        <v>0.0783990383892819</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1021430172403105</v>
+        <v>0.1013349175731354</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>914355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895379</v>
+        <v>895442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931606</v>
+        <v>930621</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.90518426377096</v>
+        <v>0.9051842637709598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8863986505214169</v>
+        <v>0.8864608450868307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.922262105211584</v>
+        <v>0.9212869537293841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1244</v>
@@ -1050,19 +1050,19 @@
         <v>878920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>863594</v>
+        <v>861328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>892575</v>
+        <v>892215</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9174579333001482</v>
+        <v>0.9174579333001481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9014594820160324</v>
+        <v>0.8990942676644971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9317116984843352</v>
+        <v>0.9313362663630816</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2115</v>
@@ -1071,19 +1071,19 @@
         <v>1793275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1767096</v>
+        <v>1768686</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1814702</v>
+        <v>1813827</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.911158530013112</v>
+        <v>0.9111585300131121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8978569827596894</v>
+        <v>0.8986650824268649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9220455300514091</v>
+        <v>0.9216009616107181</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>16812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10884</v>
+        <v>10984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24107</v>
+        <v>24603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0438675711941526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02840010661233559</v>
+        <v>0.02866044863058607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0629042629534733</v>
+        <v>0.06419913868106286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1196,19 +1196,19 @@
         <v>16049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10930</v>
+        <v>10655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23846</v>
+        <v>23106</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04471754020702272</v>
+        <v>0.04471754020702273</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03045402313661536</v>
+        <v>0.02968764102515173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0664431802348608</v>
+        <v>0.06437971752676301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1217,19 +1217,19 @@
         <v>32861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24317</v>
+        <v>24597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43092</v>
+        <v>42817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04427861641802882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03276598310830609</v>
+        <v>0.03314407877933954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05806545550108367</v>
+        <v>0.05769441676465828</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>366424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>359129</v>
+        <v>358633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>372352</v>
+        <v>372252</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9561324288058474</v>
+        <v>0.9561324288058473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9370957370465266</v>
+        <v>0.935800861318937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9715998933876643</v>
+        <v>0.9713395513694139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -1267,19 +1267,19 @@
         <v>342846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335049</v>
+        <v>335789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347965</v>
+        <v>348240</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9552824597929773</v>
+        <v>0.9552824597929774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9335568197651395</v>
+        <v>0.9356202824732376</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9695459768633847</v>
+        <v>0.9703123589748482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>850</v>
@@ -1288,19 +1288,19 @@
         <v>709270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>699039</v>
+        <v>699314</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>717814</v>
+        <v>717534</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9557213835819711</v>
+        <v>0.955721383581971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9419345444989162</v>
+        <v>0.9423055832353419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.967234016891694</v>
+        <v>0.9668559212206606</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>186426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163919</v>
+        <v>164738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212161</v>
+        <v>209311</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1124351746401217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09886108671380803</v>
+        <v>0.09935526896385791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1279562701751001</v>
+        <v>0.1262375712088614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>333</v>
@@ -1413,19 +1413,19 @@
         <v>200171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179764</v>
+        <v>179423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222132</v>
+        <v>222644</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1238042707542663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1111825381909139</v>
+        <v>0.1109714405496111</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1373871644046841</v>
+        <v>0.1377036760697019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>586</v>
@@ -1434,19 +1434,19 @@
         <v>386597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>356241</v>
+        <v>356685</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416562</v>
+        <v>423148</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1180481464479414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1087789475064906</v>
+        <v>0.1089144689095451</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1271982864191492</v>
+        <v>0.1292092358664822</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1471645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1445910</v>
+        <v>1448760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1494152</v>
+        <v>1493333</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8875648253598782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8720437298249001</v>
+        <v>0.8737624287911386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9011389132861921</v>
+        <v>0.9006447310361421</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2069</v>
@@ -1484,19 +1484,19 @@
         <v>1416664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1394703</v>
+        <v>1394191</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1437071</v>
+        <v>1437412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8761957292457335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8626128355953159</v>
+        <v>0.8622963239302979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8888174618090859</v>
+        <v>0.8890285594503891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3514</v>
@@ -1505,19 +1505,19 @@
         <v>2888309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2858344</v>
+        <v>2851758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2918665</v>
+        <v>2918221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8819518535520586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8728017135808509</v>
+        <v>0.8707907641335177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8912210524935095</v>
+        <v>0.8910855310904547</v>
       </c>
     </row>
     <row r="15">
